--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>TOTAL</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>non-nécessaire</t>
+  </si>
+  <si>
+    <t>Électroaimant+shipping</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -202,11 +205,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -233,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,22 +557,22 @@
   <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
@@ -567,7 +584,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -593,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -621,7 +638,7 @@
         <v>20.550361615805258</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -646,7 +663,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -680,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -704,15 +721,15 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5</f>
-        <v>9.1540435450948774</v>
+        <f>H4+H5+H10</f>
+        <v>11.906900687952021</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7</f>
         <v>29.554762744752164</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -741,7 +758,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -770,23 +787,34 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>12.79+6.48</f>
+        <v>19.27</v>
+      </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
+        <v>19.27</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7528571428571427</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="8">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="8"/>
@@ -800,9 +828,9 @@
         <v>0</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -818,7 +846,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
@@ -834,7 +862,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
@@ -850,7 +878,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -866,7 +894,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -882,7 +910,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8"/>
@@ -898,7 +926,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
@@ -914,7 +942,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
@@ -930,7 +958,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
@@ -946,7 +974,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
@@ -962,7 +990,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
@@ -978,7 +1006,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
@@ -994,7 +1022,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
@@ -1010,7 +1038,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
@@ -1026,7 +1054,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
@@ -1042,7 +1070,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
@@ -1058,7 +1086,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="4" t="s">
@@ -1066,30 +1094,30 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>336.48164402892928</v>
+        <v>355.75164402892926</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>48.068806289847039</v>
+        <v>50.821663432704185</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>162.33307696830718</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+        <v>175.12307696830717</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>137.66692303169282</v>
+        <v>124.87692303169283</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>TOTAL</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Électroaimant+shipping</t>
+  </si>
+  <si>
+    <t>Importation batterie</t>
   </si>
 </sst>
 </file>
@@ -246,10 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,34 +560,34 @@
   <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -610,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -638,7 +641,7 @@
         <v>20.550361615805258</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -663,7 +666,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -697,7 +700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -725,11 +728,11 @@
         <v>11.906900687952021</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7</f>
-        <v>29.554762744752164</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+        <f>H6+H7+H11</f>
+        <v>34.526191316180736</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -758,7 +761,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -787,7 +790,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -814,23 +817,31 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>34.799999999999997</v>
+      </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9714285714285706</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -846,7 +857,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
@@ -862,7 +873,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
@@ -878,7 +889,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -894,7 +905,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -910,7 +921,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="8"/>
@@ -926,7 +937,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
@@ -942,7 +953,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
@@ -958,7 +969,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
@@ -974,7 +985,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
@@ -990,7 +1001,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
@@ -1006,7 +1017,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
@@ -1022,7 +1033,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
@@ -1038,7 +1049,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
@@ -1054,7 +1065,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
@@ -1070,7 +1081,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
@@ -1086,7 +1097,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="4" t="s">
@@ -1094,14 +1105,14 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>355.75164402892926</v>
+        <v>390.55164402892927</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>50.821663432704185</v>
+        <v>55.793092004132752</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
@@ -1111,7 +1122,7 @@
         <v>175.12307696830717</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>TOTAL</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Importation batterie</t>
+  </si>
+  <si>
+    <t>Cœur bobine</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>EB:</t>
   </si>
 </sst>
 </file>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M29"/>
+  <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +584,7 @@
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
@@ -587,7 +596,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -613,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -641,7 +650,7 @@
         <v>20.550361615805258</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,7 +675,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -699,8 +708,11 @@
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -731,8 +743,12 @@
         <f>H6+H7+H11</f>
         <v>34.526191316180736</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="11">
+        <f>H12</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -761,7 +777,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -790,7 +806,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -817,7 +833,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
@@ -841,23 +857,34 @@
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J12" s="8">
+        <f>F12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
@@ -873,7 +900,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="8"/>
@@ -889,7 +916,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
@@ -905,7 +932,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
@@ -1105,21 +1132,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>390.55164402892927</v>
+        <v>396.55164402892927</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>55.793092004132752</v>
+        <v>56.650234861275607</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>175.12307696830717</v>
+        <v>181.12307696830717</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1128,7 +1155,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>124.87692303169283</v>
+        <v>118.87692303169283</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>TOTAL</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>EB:</t>
+  </si>
+  <si>
+    <t>PCB alim + pièces</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,8 +739,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10</f>
-        <v>11.906900687952021</v>
+        <f>H4+H5+H10+H13</f>
+        <v>18.421186402237737</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11</f>
@@ -885,20 +888,30 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45.6</v>
+      </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>45.6</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5142857142857142</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
@@ -1132,21 +1145,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>396.55164402892927</v>
+        <v>442.1516440289293</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>56.650234861275607</v>
+        <v>63.164520575561319</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>181.12307696830717</v>
+        <v>184.72307696830717</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1155,7 +1168,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>118.87692303169283</v>
+        <v>115.27692303169283</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>TOTAL</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>PCB alim + pièces</t>
+  </si>
+  <si>
+    <t>PCB Manchester+pièces</t>
+  </si>
+  <si>
+    <t>Connecteur batterie</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,12 +745,12 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13</f>
-        <v>18.421186402237737</v>
+        <f>H4+H5+H10+H13+H14</f>
+        <v>21.785472116523451</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7+H11</f>
-        <v>34.526191316180736</v>
+        <f>H6+H7+H11+F15</f>
+        <v>36.026191316180736</v>
       </c>
       <c r="N7" s="11">
         <f>H12</f>
@@ -851,7 +857,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
@@ -914,36 +920,58 @@
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <f>10+13.55</f>
+        <v>23.55</v>
+      </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
+        <v>23.55</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3642857142857143</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8">
+        <v>13.55</v>
+      </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.5</v>
+      </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8">
+        <f>F15</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
@@ -1145,21 +1173,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>442.1516440289293</v>
+        <v>467.20164402892931</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>63.164520575561319</v>
+        <v>66.743092004132748</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>184.72307696830717</v>
+        <v>199.77307696830718</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1168,7 +1196,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>115.27692303169283</v>
+        <v>100.22692303169282</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>TOTAL</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Connecteur batterie</t>
+  </si>
+  <si>
+    <t>Condensateurs</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,8 +748,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14</f>
-        <v>21.785472116523451</v>
+        <f>H4+H5+H10+H13+H14+H16</f>
+        <v>23.071186402237736</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11+F15</f>
@@ -974,20 +977,31 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>9</v>
+      </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <f>F16</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
@@ -1173,21 +1187,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>467.20164402892931</v>
+        <v>476.20164402892931</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>66.743092004132748</v>
+        <v>68.02880628984704</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>199.77307696830718</v>
+        <v>208.77307696830718</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1196,7 +1210,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>100.22692303169282</v>
+        <v>91.22692303169282</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>TOTAL</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Cœur bobine</t>
   </si>
   <si>
-    <t>EB</t>
-  </si>
-  <si>
-    <t>EB:</t>
-  </si>
-  <si>
     <t>PCB alim + pièces</t>
   </si>
   <si>
@@ -107,6 +101,18 @@
   </si>
   <si>
     <t>Condensateurs</t>
+  </si>
+  <si>
+    <t>EB-MS</t>
+  </si>
+  <si>
+    <t>Pièces connections</t>
+  </si>
+  <si>
+    <t>PCB connections</t>
+  </si>
+  <si>
+    <t>PCB Chargement</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N29"/>
+  <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +602,7 @@
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
@@ -608,7 +614,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -634,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -662,7 +668,7 @@
         <v>20.550361615805258</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -720,11 +726,8 @@
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -748,19 +751,15 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16</f>
-        <v>23.071186402237736</v>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19</f>
+        <v>26.499757830809163</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11+F15</f>
         <v>36.026191316180736</v>
       </c>
-      <c r="N7" s="11">
-        <f>H12</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -789,7 +788,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -818,7 +817,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -845,7 +844,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
@@ -869,36 +868,38 @@
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="8">
         <v>3</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="I12" s="13"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="8">
         <f>F12</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -922,9 +923,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -949,9 +950,9 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -976,9 +977,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1004,49 +1005,76 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8">
+        <f>E17</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10</v>
+      </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
@@ -1187,21 +1215,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>476.20164402892931</v>
+        <v>503.20164402892931</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>68.02880628984704</v>
+        <v>71.885949146989901</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>208.77307696830718</v>
+        <v>215.77307696830718</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1210,7 +1238,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>91.22692303169282</v>
+        <v>84.22692303169282</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>TOTAL</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>PCB Chargement</t>
+  </si>
+  <si>
+    <t>PCB Manchester v2</t>
+  </si>
+  <si>
+    <t>PCB Chargement v2</t>
+  </si>
+  <si>
+    <t>PCB connections v2</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
   <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M11" activeCellId="1" sqref="M17 M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,12 +760,12 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19</f>
-        <v>26.499757830809163</v>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20</f>
+        <v>27.92832925938059</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7+H11+F15</f>
-        <v>36.026191316180736</v>
+        <f>H6+H7+H11+F15+H21+H22</f>
+        <v>39.454762744752166</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
@@ -1080,49 +1089,73 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10</v>
+      </c>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>14</v>
+      </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>10</v>
+      </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
@@ -1215,14 +1248,14 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>503.20164402892931</v>
+        <v>537.20164402892931</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>71.885949146989901</v>
+        <v>76.743092004132762</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>TOTAL</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>PCB connections v2</t>
+  </si>
+  <si>
+    <t>PCB recharge+pièces</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" activeCellId="1" sqref="M17 M11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,12 +763,12 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20</f>
-        <v>27.92832925938059</v>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23</f>
+        <v>30.114043545094876</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7+H11+F15+H21+H22</f>
-        <v>39.454762744752166</v>
+        <f>H6+H7+H11+H15+H21+H22</f>
+        <v>38.169048459037882</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
@@ -1161,20 +1164,31 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <f>10+5.3</f>
+        <v>15.3</v>
+      </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="13"/>
+        <v>15.3</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1857142857142859</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
@@ -1248,21 +1262,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>537.20164402892931</v>
+        <v>552.50164402892926</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>76.743092004132762</v>
+        <v>78.928806289847046</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>215.77307696830718</v>
+        <v>221.07307696830719</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1271,7 +1285,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>84.22692303169282</v>
+        <v>78.926923031692809</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>TOTAL</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>PCB recharge+pièces</t>
+  </si>
+  <si>
+    <t>LED &amp; Connecteurs Manchester</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>MTA+Fuses backup</t>
   </si>
 </sst>
 </file>
@@ -596,15 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M29"/>
+  <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
@@ -614,7 +625,7 @@
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
@@ -626,7 +637,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -652,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -680,7 +691,7 @@
         <v>20.550361615805258</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -705,7 +716,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
@@ -738,8 +749,11 @@
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -763,15 +777,19 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23</f>
-        <v>30.114043545094876</v>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26</f>
+        <v>31.72832925938059</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7+H11+H15+H21+H22</f>
-        <v>38.169048459037882</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+        <f>H6+H7+H11+H15+H21+H22+H24</f>
+        <v>38.911905601895022</v>
+      </c>
+      <c r="N7" s="11">
+        <f>H25+(2/3)*H12</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
@@ -800,7 +818,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -829,7 +847,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -856,7 +874,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
@@ -880,7 +898,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
@@ -901,15 +919,13 @@
         <f t="shared" si="1"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="8">
         <f>F12</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
@@ -935,7 +951,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
@@ -962,7 +978,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1171,69 +1187,96 @@
         <v>1</v>
       </c>
       <c r="E23" s="8">
-        <f>10+5.3</f>
-        <v>15.3</v>
+        <f>10+5.3+3.9</f>
+        <v>19.2</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>15.3</v>
+        <v>19.2</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>2.1857142857142859</v>
+        <v>2.7428571428571429</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="8">
-        <v>5.3</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5.2</v>
+      </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>5.2</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <f>E24</f>
+        <v>5.2</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>20</v>
+      </c>
       <c r="F25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="13"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62857142857142867</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -1262,21 +1305,21 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>552.50164402892926</v>
+        <v>586.00164402892938</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>78.928806289847046</v>
+        <v>83.714520575561352</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="11">
         <f>SUM(J4:J27)</f>
-        <v>221.07307696830719</v>
+        <v>230.17307696830716</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
@@ -1285,7 +1328,7 @@
       </c>
       <c r="J29" s="11">
         <f>300-J28</f>
-        <v>78.926923031692809</v>
+        <v>69.826923031692843</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>TOTAL</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>MTA+Fuses backup</t>
+  </si>
+  <si>
+    <t>PCB connections v3 + pièces</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,8 +780,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26</f>
-        <v>31.72832925938059</v>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26+H27</f>
+        <v>35.156900687952017</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11+H15+H21+H22+H24</f>
@@ -1282,17 +1285,25 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>24</v>
+      </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="9">
         <f>F27/7</f>
-        <v>0</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="9"/>
@@ -1305,14 +1316,14 @@
       </c>
       <c r="F28" s="11">
         <f>SUM(F4:F27)</f>
-        <v>586.00164402892938</v>
+        <v>610.00164402892938</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11">
         <f>SUM(H4:H27)</f>
-        <v>83.714520575561352</v>
+        <v>87.143092004132782</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>0</v>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>TOTAL</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>PCB connections v3 + pièces</t>
+  </si>
+  <si>
+    <t>Vis + Boulons</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,11 +275,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -302,6 +320,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N29"/>
+  <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,14 +754,14 @@
         <v>169.03333921326515</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F27" si="0">D6*E6</f>
+        <f t="shared" ref="F6:F29" si="0">D6*E6</f>
         <v>169.03333921326515</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H26" si="1">F6/7</f>
+        <f t="shared" ref="H6:H27" si="1">F6/7</f>
         <v>24.147619887609306</v>
       </c>
       <c r="I6" s="13"/>
@@ -780,12 +803,12 @@
       <c r="I7" s="13"/>
       <c r="J7" s="8"/>
       <c r="L7" s="11">
-        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26+H27</f>
+        <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26+H29</f>
         <v>35.156900687952017</v>
       </c>
       <c r="M7" s="11">
-        <f>H6+H7+H11+H15+H21+H22+H24</f>
-        <v>38.911905601895022</v>
+        <f>H6+H7+H11+H15+H21+H22+H24+H27</f>
+        <v>39.594762744752167</v>
       </c>
       <c r="N7" s="11">
         <f>H25+(2/3)*H12</f>
@@ -1286,60 +1309,137 @@
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4.78</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>4.78</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.68285714285714294</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="9">
+        <f>F27</f>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
         <v>24</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="9">
-        <f>F27/7</f>
+      <c r="H29" s="8">
+        <f>F29/7</f>
         <v>3.4285714285714284</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="11">
-        <f>SUM(F4:F27)</f>
-        <v>610.00164402892938</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F34" s="11">
+        <f>SUM(F4:F29)</f>
+        <v>614.78164402892935</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="11">
-        <f>SUM(H4:H27)</f>
-        <v>87.143092004132782</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H34" s="11">
+        <f>SUM(H4:H29)</f>
+        <v>87.825949146989927</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="11">
-        <f>SUM(J4:J27)</f>
-        <v>230.17307696830716</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I29" s="4" t="s">
+      <c r="J34" s="11">
+        <f>SUM(J4:J29)</f>
+        <v>234.95307696830716</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="11">
-        <f>300-J28</f>
-        <v>69.826923031692843</v>
+      <c r="J35" s="11">
+        <f>300-J34</f>
+        <v>65.046923031692842</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>TOTAL</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>Vis + Boulons</t>
+  </si>
+  <si>
+    <t>Buck chinois</t>
+  </si>
+  <si>
+    <t>Module Xbee</t>
+  </si>
+  <si>
+    <t>http://www.ebay.ca/itm/Xbee-S1-XB24-AUI-001-wireless-chip-with-free-u-fl-to-RP-SMA-connector-/322034412004?hash=item4afabf29e4:g:BrYAAOSwstxVVVFt</t>
+  </si>
+  <si>
+    <t>Breakout board Xbee</t>
+  </si>
+  <si>
+    <t>À vérifier sur robot</t>
   </si>
 </sst>
 </file>
@@ -149,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +176,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,10 +314,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -319,16 +343,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,16 +678,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -754,14 +780,14 @@
         <v>169.03333921326515</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F29" si="0">D6*E6</f>
+        <f t="shared" ref="F6:F31" si="0">D6*E6</f>
         <v>169.03333921326515</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H27" si="1">F6/7</f>
+        <f t="shared" ref="H6:H28" si="1">F6/7</f>
         <v>24.147619887609306</v>
       </c>
       <c r="I6" s="13"/>
@@ -804,7 +830,7 @@
       <c r="J7" s="8"/>
       <c r="L7" s="11">
         <f>H4+H5+H10+H13+H14+H16+H17+H18+H19+H20+H23+(1/3)*H12+H26+H29</f>
-        <v>35.156900687952017</v>
+        <v>35.214043545094874</v>
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11+H15+H21+H22+H24+H27</f>
@@ -947,8 +973,7 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="8">
-        <f>F12</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
@@ -959,22 +984,22 @@
         <v>1</v>
       </c>
       <c r="E13" s="8">
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>6.5142857142857142</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="8">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
@@ -1000,9 +1025,7 @@
         <v>3.3642857142857143</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="8">
-        <v>13.55</v>
-      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
@@ -1057,8 +1080,11 @@
         <f>F16</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1135,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1159,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1183,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1207,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1231,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1258,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1254,12 +1280,9 @@
         <v>0.74285714285714288</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="8">
-        <f>E24</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1306,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +1330,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1334,17 +1357,35 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15.82</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>31.64</v>
+      </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.5200000000000005</v>
+      </c>
       <c r="I28" s="14"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="9">
+        <f>F28</f>
+        <v>31.64</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1368,27 +1409,57 @@
       <c r="I29" s="13"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <f>F30/7</f>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="J30" s="8">
+        <f>E30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>7.86</v>
+      </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <f>F31/7</f>
+        <v>1.122857142857143</v>
+      </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="8">
+        <f>F31</f>
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
@@ -1399,14 +1470,14 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
@@ -1415,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f>SUM(F4:F29)</f>
-        <v>614.78164402892935</v>
+        <f>SUM(F4:F31)</f>
+        <v>656.68164402892933</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <f>SUM(H4:H29)</f>
-        <v>87.825949146989927</v>
+        <f>SUM(H4:H31)</f>
+        <v>93.811663432704208</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="11">
-        <f>SUM(J4:J29)</f>
-        <v>234.95307696830716</v>
+        <f>SUM(J4:J33)</f>
+        <v>255.10307696830716</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
@@ -1439,14 +1510,17 @@
       </c>
       <c r="J35" s="11">
         <f>300-J34</f>
-        <v>65.046923031692842</v>
+        <v>44.896923031692836</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:J2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>TOTAL</t>
   </si>
@@ -97,18 +97,12 @@
     <t>PCB Manchester+pièces</t>
   </si>
   <si>
-    <t>Connecteur batterie</t>
-  </si>
-  <si>
     <t>Condensateurs</t>
   </si>
   <si>
     <t>EB-MS</t>
   </si>
   <si>
-    <t>Pièces connections</t>
-  </si>
-  <si>
     <t>PCB connections</t>
   </si>
   <si>
@@ -142,19 +136,46 @@
     <t>Vis + Boulons</t>
   </si>
   <si>
-    <t>Buck chinois</t>
-  </si>
-  <si>
     <t>Module Xbee</t>
   </si>
   <si>
-    <t>http://www.ebay.ca/itm/Xbee-S1-XB24-AUI-001-wireless-chip-with-free-u-fl-to-RP-SMA-connector-/322034412004?hash=item4afabf29e4:g:BrYAAOSwstxVVVFt</t>
-  </si>
-  <si>
     <t>Breakout board Xbee</t>
   </si>
   <si>
     <t>À vérifier sur robot</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/ca/en/1mw-xbee-transceiver-module-trace-antenna.html</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/ca/en/sfe-breakout-board-xbee-module.html</t>
+  </si>
+  <si>
+    <t>http://www.ebay.ca/itm/DC-DC-Adjustable-Step-up-boost-Power-Converter-Module-XL6009-Replace-LM2577-/371054648639?hash=item5664949d3f:g:nx0AAOSwGvhUJ3NQ</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/ca/en/lynxmotion-aluminum-servo-bracket-asb-24-pair.html</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/ca/en/aluminum-long-c-servo-bracket-asb-05.html</t>
+  </si>
+  <si>
+    <t>Brackets servomoteur2(1/2 sur le robot</t>
+  </si>
+  <si>
+    <t>Brackets servomoteur(1/2 sur le robot)</t>
+  </si>
+  <si>
+    <t>Connecteur batterie (chargeur)</t>
+  </si>
+  <si>
+    <t>Buck pour xbee</t>
+  </si>
+  <si>
+    <t>Avec frais d'importations ? Sans = 30.84</t>
+  </si>
+  <si>
+    <t>Pièces connections(pas sur robot)</t>
   </si>
 </sst>
 </file>
@@ -348,10 +369,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -659,15 +680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
@@ -678,16 +699,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -739,8 +760,11 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="7">
-        <f>2*E4</f>
-        <v>20.550361615805258</v>
+        <f>F4</f>
+        <v>30.825542423707887</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -780,7 +804,7 @@
         <v>169.03333921326515</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F31" si="0">D6*E6</f>
+        <f t="shared" ref="F6:F33" si="0">D6*E6</f>
         <v>169.03333921326515</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -802,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
@@ -965,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
@@ -999,7 +1023,7 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
@@ -1029,7 +1053,7 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1049,14 +1073,11 @@
         <v>0.21428571428571427</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="8">
-        <f>F15</f>
-        <v>1.5</v>
-      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1077,16 +1098,15 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="8">
-        <f>F16</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1106,14 +1126,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="8">
-        <f>E17</f>
-        <v>4</v>
-      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1137,7 +1154,7 @@
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1161,7 +1178,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1185,7 +1202,7 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1209,7 +1226,7 @@
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1233,7 +1250,7 @@
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1260,7 +1277,7 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1284,7 +1301,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1297,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
@@ -1308,7 +1325,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1332,7 +1349,7 @@
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1352,42 +1369,41 @@
         <v>0.68285714285714294</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="9">
-        <f>F27</f>
-        <v>4.78</v>
-      </c>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="9">
-        <v>15.82</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>31.64</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="9">
         <f t="shared" si="1"/>
-        <v>4.5200000000000005</v>
-      </c>
-      <c r="I28" s="14"/>
+        <v>9.5057142857142871</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="9">
         <f>F28</f>
-        <v>31.64</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>44</v>
+        <v>66.540000000000006</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1407,11 +1423,13 @@
         <v>3.4285714285714284</v>
       </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1428,15 +1446,19 @@
         <f>F30/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="8">
-        <f>E30</f>
-        <v>2</v>
+        <v>1.77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -1453,74 +1475,120 @@
         <f>F31/7</f>
         <v>1.122857142857143</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="8">
         <f>F31</f>
         <v>7.86</v>
       </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>5.76</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8">
+        <f>F32/7</f>
+        <v>0.82285714285714284</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="8">
+        <f>F32/2</f>
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="17">
+        <f>F33/7</f>
+        <v>0.75714285714285712</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="17">
+        <f>F33/2</f>
+        <v>2.65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f>SUM(F4:F31)</f>
-        <v>656.68164402892933</v>
+        <f>SUM(F4:F33)</f>
+        <v>702.64164402892925</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <f>SUM(H4:H31)</f>
-        <v>93.811663432704208</v>
+        <f>SUM(H4:H33)</f>
+        <v>100.3773777184185</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="11">
         <f>SUM(J4:J33)</f>
-        <v>255.10307696830716</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+        <v>297.29825777620977</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="11">
         <f>300-J34</f>
-        <v>44.896923031692836</v>
+        <v>2.7017422237902338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>TOTAL</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Pièces connections(pas sur robot)</t>
+  </si>
+  <si>
+    <t>taxes=</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,8 +893,8 @@
         <v>21</v>
       </c>
       <c r="J8" s="8">
-        <f>E8</f>
-        <v>44.99</v>
+        <f>E8*N10</f>
+        <v>51.727252500000006</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -919,8 +922,8 @@
         <v>21</v>
       </c>
       <c r="J9" s="8">
-        <f>E9</f>
-        <v>20.53</v>
+        <f>E9*N10</f>
+        <v>23.604367500000002</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
@@ -947,7 +950,15 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="8">
-        <v>12.79</v>
+        <f>12.79*N10</f>
+        <v>14.7053025</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <f>1.14975</f>
+        <v>1.14975</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
@@ -1394,8 +1405,8 @@
         <v>21</v>
       </c>
       <c r="J28" s="9">
-        <f>F28</f>
-        <v>66.540000000000006</v>
+        <f>F28*N10</f>
+        <v>76.504365000000007</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>43</v>
@@ -1450,7 +1461,8 @@
         <v>21</v>
       </c>
       <c r="J30" s="8">
-        <v>1.77</v>
+        <f>1.77*N10</f>
+        <v>2.0350575000000002</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
@@ -1479,8 +1491,8 @@
         <v>21</v>
       </c>
       <c r="J31" s="8">
-        <f>F31</f>
-        <v>7.86</v>
+        <f>F31*N10</f>
+        <v>9.0370350000000013</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
@@ -1572,7 +1584,7 @@
       </c>
       <c r="J34" s="11">
         <f>SUM(J4:J33)</f>
-        <v>297.29825777620977</v>
+        <v>320.43163777620975</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
@@ -1581,7 +1593,7 @@
       </c>
       <c r="J35" s="11">
         <f>300-J34</f>
-        <v>2.7017422237902338</v>
+        <v>-20.431637776209755</v>
       </c>
     </row>
   </sheetData>

--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>TOTAL</t>
   </si>
@@ -142,12 +142,6 @@
     <t>Breakout board Xbee</t>
   </si>
   <si>
-    <t>À vérifier sur robot</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/ca/en/1mw-xbee-transceiver-module-trace-antenna.html</t>
-  </si>
-  <si>
     <t>http://www.robotshop.com/ca/en/sfe-breakout-board-xbee-module.html</t>
   </si>
   <si>
@@ -169,16 +163,19 @@
     <t>Connecteur batterie (chargeur)</t>
   </si>
   <si>
-    <t>Buck pour xbee</t>
-  </si>
-  <si>
-    <t>Avec frais d'importations ? Sans = 30.84</t>
-  </si>
-  <si>
     <t>Pièces connections(pas sur robot)</t>
   </si>
   <si>
     <t>taxes=</t>
+  </si>
+  <si>
+    <t>Buck pour xbee, Arduino et électronique</t>
+  </si>
+  <si>
+    <t>http://www.ebay.ca/itm/XBee-Serial-1-Module-1mW-Trace-Antenna-/152029334462?hash=item2365a78bbe:g:CYMAAOSw5ZBWLEjG</t>
+  </si>
+  <si>
+    <t>PCB Chargement v2+pièces</t>
   </si>
 </sst>
 </file>
@@ -342,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -376,6 +373,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -683,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,9 +765,6 @@
         <f>F4</f>
         <v>30.825542423707887</v>
       </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -839,7 +835,7 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="22">
         <v>37.85</v>
       </c>
       <c r="F7" s="8">
@@ -861,7 +857,7 @@
       </c>
       <c r="M7" s="11">
         <f>H6+H7+H11+H15+H21+H22+H24+H27</f>
-        <v>39.594762744752167</v>
+        <v>41.009048459037878</v>
       </c>
       <c r="N7" s="11">
         <f>H25+(2/3)*H12</f>
@@ -875,26 +871,29 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>44.99</v>
+      <c r="E8" s="22">
+        <v>25</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>44.99</v>
+        <v>25</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>6.427142857142857</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="8">
+        <v>25</v>
+      </c>
+      <c r="K8" s="21">
         <f>E8*N10</f>
-        <v>51.727252500000006</v>
+        <v>28.743750000000002</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -904,7 +903,7 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="22">
         <v>20.53</v>
       </c>
       <c r="F9" s="8">
@@ -933,7 +932,7 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="22">
         <f>12.79+6.48</f>
         <v>19.27</v>
       </c>
@@ -954,7 +953,7 @@
         <v>14.7053025</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <f>1.14975</f>
@@ -1034,7 +1033,7 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="8">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
@@ -1064,7 +1063,7 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1109,15 +1108,12 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="8">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1213,27 +1209,30 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>14</v>
+        <f>14+9.9</f>
+        <v>23.9</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>23.9</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.4142857142857141</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
@@ -1283,7 +1282,7 @@
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="8">
-        <v>9.1999999999999993</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
@@ -1380,7 +1379,9 @@
         <v>0.68285714285714294</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
@@ -1390,26 +1391,26 @@
         <v>2</v>
       </c>
       <c r="E28" s="9">
-        <v>33.270000000000003</v>
+        <v>24.81</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>66.540000000000006</v>
+        <v>49.62</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="9">
         <f t="shared" si="1"/>
-        <v>9.5057142857142871</v>
+        <v>7.0885714285714281</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="9">
         <f>F28*N10</f>
-        <v>76.504365000000007</v>
+        <v>57.050595000000001</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.3">
@@ -1435,7 +1436,7 @@
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="8">
-        <v>4</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
@@ -1465,7 +1466,7 @@
         <v>2.0350575000000002</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
@@ -1490,76 +1491,73 @@
       <c r="I31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="8">
-        <f>F31*N10</f>
-        <v>9.0370350000000013</v>
-      </c>
+      <c r="J31" s="8"/>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="8">
-        <v>5.76</v>
+        <v>15.93</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>5.76</v>
+        <v>15.93</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="8">
         <f>F32/7</f>
-        <v>0.82285714285714284</v>
+        <v>2.2757142857142858</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="8">
         <f>F32/2</f>
-        <v>2.88</v>
-      </c>
-      <c r="K32" t="s">
-        <v>46</v>
+        <v>7.9649999999999999</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
       </c>
       <c r="E33" s="17">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="17">
         <f>F33/7</f>
-        <v>0.75714285714285712</v>
+        <v>1.5142857142857142</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="17">
         <f>F33/2</f>
-        <v>2.65</v>
-      </c>
-      <c r="K33" t="s">
-        <v>47</v>
+        <v>5.3</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
@@ -1570,21 +1568,21 @@
       </c>
       <c r="F34" s="11">
         <f>SUM(F4:F33)</f>
-        <v>702.64164402892925</v>
+        <v>691.10164402892929</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="11">
         <f>SUM(H4:H33)</f>
-        <v>100.3773777184185</v>
+        <v>98.728806289847071</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J34" s="11">
         <f>SUM(J4:J33)</f>
-        <v>320.43163777620975</v>
+        <v>283.32858027620978</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
@@ -1593,14 +1591,19 @@
       </c>
       <c r="J35" s="11">
         <f>300-J34</f>
-        <v>-20.431637776209755</v>
+        <v>16.671419723790223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:J2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K32" r:id="rId1"/>
+    <hyperlink ref="K33" r:id="rId2"/>
+    <hyperlink ref="K28" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Portrait général" sheetId="1" r:id="rId1"/>
+    <sheet name="Sur robot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>TOTAL</t>
   </si>
@@ -176,6 +177,63 @@
   </si>
   <si>
     <t>PCB Chargement v2+pièces</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>Électroaimant</t>
+  </si>
+  <si>
+    <t>Électronique circuit alimentation</t>
+  </si>
+  <si>
+    <t>Condensateur</t>
+  </si>
+  <si>
+    <t>Électronique circuit charge/décharge</t>
+  </si>
+  <si>
+    <t>Électronique station de base</t>
+  </si>
+  <si>
+    <t>Quincaillerie</t>
+  </si>
+  <si>
+    <t>Électronique circuit de connexions</t>
+  </si>
+  <si>
+    <t>Buck station de recharge</t>
+  </si>
+  <si>
+    <t>Support servomoteur</t>
+  </si>
+  <si>
+    <t>Bracket servomoteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total du robot </t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>HobbyKing</t>
+  </si>
+  <si>
+    <t>Robotshop</t>
+  </si>
+  <si>
+    <t>Servomoteur HS-485HB</t>
+  </si>
+  <si>
+    <t>Service technique</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -218,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -334,12 +392,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -375,6 +459,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -682,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,16 +794,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -1380,7 +1473,7 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
@@ -1521,8 +1614,8 @@
         <v>21</v>
       </c>
       <c r="J32" s="8">
-        <f>F32/2</f>
-        <v>7.9649999999999999</v>
+        <f>(F32/2)*N10</f>
+        <v>9.1577587500000011</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>44</v>
@@ -1553,8 +1646,8 @@
         <v>21</v>
       </c>
       <c r="J33" s="17">
-        <f>F33/2</f>
-        <v>5.3</v>
+        <f>(F33/2)*N10</f>
+        <v>6.0936750000000002</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>45</v>
@@ -1582,7 +1675,7 @@
       </c>
       <c r="J34" s="11">
         <f>SUM(J4:J33)</f>
-        <v>283.32858027620978</v>
+        <v>288.31501402620984</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
@@ -1591,7 +1684,7 @@
       </c>
       <c r="J35" s="11">
         <f>300-J34</f>
-        <v>16.671419723790223</v>
+        <v>11.684985973790162</v>
       </c>
     </row>
   </sheetData>
@@ -1606,4 +1699,357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10.28</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3*D3</f>
+        <v>30.839999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F18" si="0">E4*D4</f>
+        <v>76.260000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <f>20.53*D21</f>
+        <v>23.604367500000002</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>23.604367500000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="8">
+        <f>15.93*D21</f>
+        <v>18.315517500000002</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>9.1577587500000011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="8">
+        <f>10.6*D21</f>
+        <v>12.18735</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>6.0936750000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <f>12.79*D21</f>
+        <v>14.7053025</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>14.7053025</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>6.83</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.85</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <f>24.81*D21</f>
+        <v>28.525297500000001</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>57.050595000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="26">
+        <f>SUM(F3:F18)</f>
+        <v>288.33169874999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f>1.14975</f>
+        <v>1.14975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planification/Budget.xlsx
+++ b/Planification/Budget.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Portrait général" sheetId="1" r:id="rId1"/>
@@ -459,14 +459,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,16 +794,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
@@ -1705,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2019,7 @@
       <c r="C18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>1</v>
       </c>
       <c r="E18" s="17">
@@ -2031,16 +2031,16 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <f>SUM(F3:F18)</f>
         <v>288.33169874999999</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D21">
